--- a/RunScriptsAndStressTest/Stress-Testing-Config.xlsx
+++ b/RunScriptsAndStressTest/Stress-Testing-Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/gazho_microsoft_com/Documents/Zhou_Data/Projects_Assets_IP_and_Tools/PowerShell_Scripts/Run_Scripts_With_Stress_Testing/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://microsoft-my.sharepoint.com/personal/gazho_microsoft_com/Documents/Zhou_Data/Projects_Assets_IP_and_Tools/PowerShell_Scripts/Run_Scripts_With_Stress_Testing/RunScriptsAndStressTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{E4A2E50B-64EE-4CA7-B634-CA1A3144FCC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1E3D8069-E00C-48A6-9F49-E631EF2B34EF}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{E4A2E50B-64EE-4CA7-B634-CA1A3144FCC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F555A1F4-1B64-44C2-985B-F4D37BCE682B}"/>
   <bookViews>
-    <workbookView xWindow="-17535" yWindow="-4500" windowWidth="24300" windowHeight="14055" xr2:uid="{A1E37364-5442-46D7-B42D-AEEBF040B4C1}"/>
+    <workbookView xWindow="-24615" yWindow="-1275" windowWidth="24300" windowHeight="13425" activeTab="1" xr2:uid="{A1E37364-5442-46D7-B42D-AEEBF040B4C1}"/>
   </bookViews>
   <sheets>
     <sheet name="ServerDatabaseConfig" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Active</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>AdventureWorksDW2017</t>
+  </si>
+  <si>
+    <t>RecentQuries.sql</t>
+  </si>
+  <si>
+    <t>RecentQuriesByUsers.sql</t>
   </si>
 </sst>
 </file>
@@ -458,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F15B895-B58E-4D97-B54B-122E16CD9513}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C95D336-C2E5-4EAE-B3DF-DF1A193E3293}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -600,6 +606,52 @@
         <v>30</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
